--- a/exports/releve_04.xlsx
+++ b/exports/releve_04.xlsx
@@ -14,26 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Banque</t>
   </si>
   <si>
-    <t>he AXIS BANK</t>
+    <t>hn AXIS BANK</t>
   </si>
   <si>
     <t>Compte</t>
   </si>
   <si>
-    <t>919010061861194</t>
-  </si>
-  <si>
     <t>Titulaire</t>
   </si>
   <si>
+    <t>fos.i0-2001|[ECOM PUR/DreamiimuMBatmsiezing2e [OC ao[arao0[ aan |</t>
+  </si>
+  <si>
     <t>Période</t>
   </si>
   <si>
+    <t>the period (Prom : O1-14-2021 To: LA01-2023)</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -44,36 +47,6 @@
   </si>
   <si>
     <t>Sens</t>
-  </si>
-  <si>
-    <t>21/19</t>
-  </si>
-  <si>
-    <t>fos-10-2021, [ECOM PUR/Deeam 11/Bangalore/0810:24 ] 3745.00] 241, lUPLP2A/128354630747/SONU KUMAVICICL 10.10.2021 [Ban/Payment 5.00 3740.00] 241 lUPLP2a/1283167418137RATU KUMATUnion 10-10-2021 Bana ] 374] 241 JUPLP2A7128383440334/Bank Acca/Union 10.10.2021 [Ban/Payment 2340.00 140] 241 ATM-CASH.</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>03/98</t>
-  </si>
-  <si>
-    <t>11-10-2021 [AXIS/DPCN21 131021/ALWAR 901.00] 241 [UPLP2M/128533578453/Dreamt l/YesBank_YiP 12-10-2021 layment 10.00 891.00] 241 |UPLP2M/129638804593/RELIANCE 13.10.2021 /Citibank/SiO20BRO 149.00 742.00] 241 lUPyP2A/128744826693/Bank Acco/State 14-10-2021 BanPayment 500.00 242.00] 241 JUPLP2A/128879454450/Sulena DiState 15.10.2021 Ban/Payment 5.00 237.00] 241 |UPLP2M/128846684387/SPORTA TE/Kotak 15.10.2021 IMah/Payment 8.00 229.00] 241 [UPLP2M/129170926528/SPORTA TE/Kotak 18-10-2021 IMah/Payment 27.00] 202.00] 241 [UPLP2M/129251770460/Deeami W/VesBank_YIP 19.10.2021 layment 193,00] 241 fat-10-2021 [GST @ 18% on Charge 163.56] 241 24-10-2021 [Consolidated Charges for Ale 00] 241 INEFT/N3062101 18830845/A K Joz-11-2021 IMANPO/KARUR WS. 11636,00] 11636,00| 248</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>03/36</t>
-  </si>
-  <si>
-    <t>13112VALWAR 3] 8636.00] 241 lupyP2a/130832230564/RAJU KUMA/Union jos-11-2021 BanPaymene 0,09] 586,00] 241 [UPL/P2A/1308763306747RAJU KUMAVUnion Jos-t1.2021 [Ban/Payment 1.00] 3585.00] 241, [UPLP2A/130853397101/RAJU KUMAVUnion Jos-11-2001 Ban/Payment 49.00 8536.00] 241 lUPLP2A/130816546042/Bank Acco/State fos-11-2021, BanUjiwei 4 4536000] 241, | UPLP2M/130852967280/Deeami W/VesBank_YiP fos-11-2021, layment 23.00] 4513.00] 241</t>
-  </si>
-  <si>
-    <t>000.00</t>
   </si>
 </sst>
 </file>
@@ -405,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,12 +396,12 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -436,61 +409,22 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
